--- a/WI 24/SE 160A/MATLAB PROJECT 2/2024_SE160A_MATLAB_Wing_Student_Project (v2)/Wing_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 2/2024_SE160A_MATLAB_Wing_Student_Project (v2)/Wing_Analysis_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 2\2024_SE160A_MATLAB_Wing_Student_Project (v2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581E0AC3-4C88-4F8B-A52A-0E2E466D9A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7ADE42-98A5-4842-90AF-384509D9291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2803,7 +2803,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF3FBC0D-8067-1B59-479C-17B5FD77FFE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE2557A-546C-A06C-FBE0-32A5562A52BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2853,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088FBA81-FA6C-CAAF-1F81-DFF23DC9517A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D26C090-2372-5F2B-4BAC-0C729D6BF3C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2903,7 +2903,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36657B06-3A2D-1777-8018-88FE5A50BB12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7983443-A0BB-ABE2-9227-4A1D9AE4297A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2953,7 +2953,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4443F3FD-879C-474A-0993-A9930F255674}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{873E524C-4797-8C52-3460-E962ED40A786}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3003,7 +3003,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EB82B9-7755-88C9-537E-BDF99E38475A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B77CE5-7028-5AF6-068F-7B0DEA8C7CEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3053,7 +3053,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB3968B8-5DE3-C8B3-8A35-EE0D8C9B20B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90F50ABE-EA1A-567F-52D5-008E12FD6BB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3103,7 +3103,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CDD04C-2F8C-1A00-B46B-BE334AB1ADF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09716778-AC42-BABF-C4BA-4E217A8E65BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3153,7 +3153,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B0203DE-14C9-E10E-1EE0-23662522DEBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C986BFF1-A804-3A01-2229-D51D6E22AC50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3203,7 +3203,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F757C3-B1FC-8C5B-F434-FE4DD1D1978C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B166010C-80B7-5C1E-6487-61874E353CC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3253,7 +3253,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A557C8B-4B4C-4C2A-494C-860135B62B49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970BE122-43C0-86B8-B8C5-806339A45153}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3303,7 +3303,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9D2D63-AB1F-02C4-944A-37FCCE5E8C51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12394EAF-2C49-87D6-D557-8AC9DEB8C0AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3353,7 +3353,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE17E0D-9B52-606C-EF9F-7094D77037FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FAE4A7B-FE0A-AE20-0F4A-2BA383ABB3DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3403,7 +3403,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3081A811-DC58-6044-D90A-CAB927D052CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{072D32B7-D0FA-327A-6464-71A0486D7E01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3453,7 +3453,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{590CB7FD-9410-367B-77E0-98EA6D40C08E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6674979-9A11-3503-116F-63CCD9431754}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3503,7 +3503,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F288296B-2760-534D-DE90-A0AC11720503}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB3F1EF6-6617-C3D7-C487-265FE6F7222F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3553,7 +3553,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D38A1D19-FDFA-41D5-FA46-3DF356AEF6FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F1D60F7-E020-2BF5-594B-ED5773863149}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/WI 24/SE 160A/MATLAB PROJECT 2/2024_SE160A_MATLAB_Wing_Student_Project (v2)/Wing_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 2/2024_SE160A_MATLAB_Wing_Student_Project (v2)/Wing_Analysis_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 2\2024_SE160A_MATLAB_Wing_Student_Project (v2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7ADE42-98A5-4842-90AF-384509D9291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40976A0C-025E-43ED-BAF5-4971685DFFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2803,7 +2803,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE2557A-546C-A06C-FBE0-32A5562A52BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91081728-9E73-E320-4D1E-6A407D0EB546}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2853,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D26C090-2372-5F2B-4BAC-0C729D6BF3C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE8E35F-BB54-2EDF-FFBD-319FFAFAB5F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2903,7 +2903,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7983443-A0BB-ABE2-9227-4A1D9AE4297A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BBA06D-7D1B-8224-AE1E-605C017C22F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2953,7 +2953,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{873E524C-4797-8C52-3460-E962ED40A786}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{203D35CC-E16B-FF9B-7362-C79FFD34F17C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3003,7 +3003,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B77CE5-7028-5AF6-068F-7B0DEA8C7CEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77B9B1E-17BC-E9DD-D298-568F67269CF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3053,7 +3053,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90F50ABE-EA1A-567F-52D5-008E12FD6BB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9AE2C2C-8599-B61B-7B87-1C6A401ABE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3103,7 +3103,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09716778-AC42-BABF-C4BA-4E217A8E65BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBEB6D57-69EF-DA7D-5A13-BA5235E76DB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3153,7 +3153,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C986BFF1-A804-3A01-2229-D51D6E22AC50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39321A4-34A6-98CF-6291-7307DF52BEA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3203,7 +3203,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B166010C-80B7-5C1E-6487-61874E353CC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40250F3-B28F-FA2D-5B10-BB8D880990C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3253,7 +3253,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970BE122-43C0-86B8-B8C5-806339A45153}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8DA6A93-7236-EDAE-19E7-C4531BC11A2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3303,7 +3303,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12394EAF-2C49-87D6-D557-8AC9DEB8C0AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80337C09-26D8-3D28-F7CF-1A72B4E9DB27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3353,7 +3353,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FAE4A7B-FE0A-AE20-0F4A-2BA383ABB3DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15B70EE-A5E3-5803-F018-7FED73A5AED1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3403,7 +3403,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{072D32B7-D0FA-327A-6464-71A0486D7E01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276664E0-3843-1F44-F0C4-BD70F3AC7253}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3453,7 +3453,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6674979-9A11-3503-116F-63CCD9431754}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6EF0CFB-DDF5-33E7-1795-9D6EEDFBC0FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3503,7 +3503,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB3F1EF6-6617-C3D7-C487-265FE6F7222F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557EB920-F5F1-B487-6560-BEF3EBF2EA88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3553,7 +3553,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F1D60F7-E020-2BF5-594B-ED5773863149}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B29891-5780-11F0-F03E-0FF8020115D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/WI 24/SE 160A/MATLAB PROJECT 2/2024_SE160A_MATLAB_Wing_Student_Project (v2)/Wing_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 2/2024_SE160A_MATLAB_Wing_Student_Project (v2)/Wing_Analysis_Output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 2\2024_SE160A_MATLAB_Wing_Student_Project (v2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40976A0C-025E-43ED-BAF5-4971685DFFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505F2152-FCD2-4CD5-980F-F75804D41358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="3420" windowWidth="19140" windowHeight="10020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="2" r:id="rId1"/>
@@ -2803,7 +2803,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91081728-9E73-E320-4D1E-6A407D0EB546}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47079322-3723-410B-B268-5661EAFFE392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2853,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE8E35F-BB54-2EDF-FFBD-319FFAFAB5F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C826289-2400-6F89-7BDB-248D6FDF9285}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2903,7 +2903,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BBA06D-7D1B-8224-AE1E-605C017C22F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1718A396-CF3B-6408-6D66-D645520D7268}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2953,7 +2953,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{203D35CC-E16B-FF9B-7362-C79FFD34F17C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F19C524-91AB-B507-8490-06EB472CBC39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3003,7 +3003,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77B9B1E-17BC-E9DD-D298-568F67269CF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0903AF5-F622-8611-4D41-9D96957F41DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3053,7 +3053,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9AE2C2C-8599-B61B-7B87-1C6A401ABE6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E9462F-8F08-E991-6CC0-E527816BF475}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3103,7 +3103,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBEB6D57-69EF-DA7D-5A13-BA5235E76DB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A125AD72-B783-FC49-B0CC-A21D450FFD23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3153,7 +3153,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39321A4-34A6-98CF-6291-7307DF52BEA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D708D1-5EF2-9D60-E035-003D104802D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3203,7 +3203,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40250F3-B28F-FA2D-5B10-BB8D880990C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF10A85B-9105-AD36-231D-2A37C18621F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3253,7 +3253,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8DA6A93-7236-EDAE-19E7-C4531BC11A2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C018CB1D-8431-E1C6-5B6D-0CFC2DEE9A3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3303,7 +3303,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80337C09-26D8-3D28-F7CF-1A72B4E9DB27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D60E382-A0FB-5CDD-3E1D-B7DEBC21D78B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3353,7 +3353,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15B70EE-A5E3-5803-F018-7FED73A5AED1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DF20E7-BBC2-041C-ED88-F0D55A903830}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3403,7 +3403,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276664E0-3843-1F44-F0C4-BD70F3AC7253}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5172B000-3ED9-00FF-92E2-AD8D8C96A958}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3453,7 +3453,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6EF0CFB-DDF5-33E7-1795-9D6EEDFBC0FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BDB181-FFB4-78CD-B489-CF44241CA3A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3503,7 +3503,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557EB920-F5F1-B487-6560-BEF3EBF2EA88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAEEDD76-68B9-14FD-51F9-1EE94314777D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3553,7 +3553,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B29891-5780-11F0-F03E-0FF8020115D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED64FE2E-8957-47E7-EE23-D6E737B34CE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3890,7 +3890,7 @@
   </sheetPr>
   <dimension ref="A1:P477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
       <selection activeCell="G355" sqref="G355"/>
     </sheetView>
   </sheetViews>
@@ -5311,7 +5311,7 @@
         <v>167</v>
       </c>
       <c r="G87" s="129">
-        <v>13.818277750933248</v>
+        <v>13.818277750933252</v>
       </c>
       <c r="H87" s="42" t="s">
         <v>22</v>
@@ -5330,7 +5330,7 @@
         <v>169</v>
       </c>
       <c r="G88" s="130">
-        <v>-5.0949673626068582E-17</v>
+        <v>5.7810811792387452E-17</v>
       </c>
       <c r="H88" s="43" t="s">
         <v>22</v>
@@ -9034,7 +9034,7 @@
         <v>189</v>
       </c>
       <c r="G353" s="99">
-        <v>-0.83956532810265527</v>
+        <v>-2.484341438053278E-2</v>
       </c>
       <c r="H353" s="31" t="s">
         <v>41</v>

--- a/WI 24/SE 160A/MATLAB PROJECT 2/2024_SE160A_MATLAB_Wing_Student_Project (v2)/Wing_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 2/2024_SE160A_MATLAB_Wing_Student_Project (v2)/Wing_Analysis_Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 2\2024_SE160A_MATLAB_Wing_Student_Project (v2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505F2152-FCD2-4CD5-980F-F75804D41358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF35058C-EB45-4B63-AC5F-2D64D3C3F295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="3420" windowWidth="19140" windowHeight="10020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="2235" windowWidth="19140" windowHeight="17145" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="2" r:id="rId1"/>
@@ -2803,7 +2803,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47079322-3723-410B-B268-5661EAFFE392}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC13BC97-5C44-BE07-A507-85A72BA63640}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2853,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C826289-2400-6F89-7BDB-248D6FDF9285}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C35AA5BA-AD1C-F291-F681-966360546448}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2903,7 +2903,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1718A396-CF3B-6408-6D66-D645520D7268}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09162C9B-5E93-EE03-AFF4-6BA9D95BDEE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2953,7 +2953,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F19C524-91AB-B507-8490-06EB472CBC39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D11EAFC-4C8A-BA40-EAC9-902E4B4203D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3003,7 +3003,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0903AF5-F622-8611-4D41-9D96957F41DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE556B4C-AD86-4DB9-B44A-415E08369F40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3053,7 +3053,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E9462F-8F08-E991-6CC0-E527816BF475}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49BC0D28-48A4-9D2E-A617-B150FB88612D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3103,7 +3103,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A125AD72-B783-FC49-B0CC-A21D450FFD23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABEC43F-A4E8-C3C7-C3B0-52876C947DD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3153,7 +3153,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D708D1-5EF2-9D60-E035-003D104802D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DFA3EC9-15A0-CDB0-6DB5-E4D5C01456A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3203,7 +3203,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF10A85B-9105-AD36-231D-2A37C18621F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1501E7E7-9A85-8176-37D1-F807057F20A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3253,7 +3253,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C018CB1D-8431-E1C6-5B6D-0CFC2DEE9A3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4548D13A-3C01-7779-D47A-98ACBE03F76B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3303,7 +3303,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D60E382-A0FB-5CDD-3E1D-B7DEBC21D78B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E3596C-85E4-61AA-4096-4A32AD69595B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3353,7 +3353,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DF20E7-BBC2-041C-ED88-F0D55A903830}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D905B369-3D73-1089-1C96-CFA38DC9F852}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3403,7 +3403,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5172B000-3ED9-00FF-92E2-AD8D8C96A958}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3FCD8B-BEEA-A69C-8D8B-2E939A879484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3453,7 +3453,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BDB181-FFB4-78CD-B489-CF44241CA3A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48005BCE-CF3F-26D3-9F9B-476E2EA9AE57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3503,7 +3503,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAEEDD76-68B9-14FD-51F9-1EE94314777D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA3788C-981B-5D6B-8D6A-60205989DE62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3553,7 +3553,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED64FE2E-8957-47E7-EE23-D6E737B34CE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C59CAC3-C5CA-0046-D746-D8325A450C3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3890,7 +3890,7 @@
   </sheetPr>
   <dimension ref="A1:P477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
       <selection activeCell="G355" sqref="G355"/>
     </sheetView>
   </sheetViews>
@@ -4132,7 +4132,7 @@
         <v>135</v>
       </c>
       <c r="G23" s="110">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="H23" s="66" t="s">
         <v>22</v>
@@ -4148,7 +4148,7 @@
         <v>137</v>
       </c>
       <c r="G24" s="111">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H24" s="109" t="s">
         <v>22</v>
@@ -4164,7 +4164,7 @@
         <v>139</v>
       </c>
       <c r="G25" s="111">
-        <v>9.6</v>
+        <v>7.68</v>
       </c>
       <c r="H25" s="109" t="s">
         <v>22</v>
@@ -4384,13 +4384,13 @@
         <v>0</v>
       </c>
       <c r="H38" s="118">
-        <v>15</v>
+        <v>14.4</v>
       </c>
       <c r="I38" s="119">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J38" s="120">
-        <v>15</v>
+        <v>14.4</v>
       </c>
       <c r="K38" s="143" t="s">
         <v>22</v>
@@ -4409,16 +4409,16 @@
         <v>149</v>
       </c>
       <c r="G39" s="121">
-        <v>0.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H39" s="121">
-        <v>3.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I39" s="121">
-        <v>0.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J39" s="121">
-        <v>3.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K39" s="80" t="s">
         <v>150</v>
@@ -4437,16 +4437,16 @@
         <v>152</v>
       </c>
       <c r="G40" s="121">
-        <v>5.2100000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="H40" s="121">
-        <v>1.04E-2</v>
+        <v>0</v>
       </c>
       <c r="I40" s="121">
-        <v>5.2100000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="J40" s="121">
-        <v>1.04E-2</v>
+        <v>0</v>
       </c>
       <c r="K40" s="80" t="s">
         <v>153</v>
@@ -4465,16 +4465,16 @@
         <v>155</v>
       </c>
       <c r="G41" s="121">
-        <v>5.2100000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="H41" s="121">
-        <v>4.1700000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I41" s="121">
-        <v>5.2100000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="J41" s="121">
-        <v>4.1700000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K41" s="80" t="s">
         <v>153</v>
@@ -5114,7 +5114,7 @@
         <v>210</v>
       </c>
       <c r="G73" s="148">
-        <v>308.78920400219266</v>
+        <v>626.53994031823709</v>
       </c>
       <c r="H73" s="149" t="s">
         <v>43</v>
@@ -5168,7 +5168,7 @@
         <v>163</v>
       </c>
       <c r="G79" s="128">
-        <v>17.777777777777779</v>
+        <v>19.2</v>
       </c>
       <c r="H79" s="41" t="s">
         <v>22</v>
@@ -5206,7 +5206,7 @@
         <v>208</v>
       </c>
       <c r="G81" s="129">
-        <v>1.4362288558241518</v>
+        <v>2.6105830846593214</v>
       </c>
       <c r="H81" s="42" t="s">
         <v>214</v>
@@ -5222,7 +5222,7 @@
         <v>57</v>
       </c>
       <c r="G82" s="129">
-        <v>81000000</v>
+        <v>204000000</v>
       </c>
       <c r="H82" s="42" t="s">
         <v>43</v>
@@ -5238,7 +5238,7 @@
         <v>58</v>
       </c>
       <c r="G83" s="129">
-        <v>1659192200.0000002</v>
+        <v>1504051199.9999998</v>
       </c>
       <c r="H83" s="42" t="s">
         <v>44</v>
@@ -5257,7 +5257,7 @@
         <v>59</v>
       </c>
       <c r="G84" s="129">
-        <v>12200938200</v>
+        <v>63452160000</v>
       </c>
       <c r="H84" s="42" t="s">
         <v>44</v>
@@ -5295,7 +5295,7 @@
         <v>61</v>
       </c>
       <c r="G86" s="129">
-        <v>876008902.36434197</v>
+        <v>448516558.01054329</v>
       </c>
       <c r="H86" s="42" t="s">
         <v>44</v>
@@ -5311,7 +5311,7 @@
         <v>167</v>
       </c>
       <c r="G87" s="129">
-        <v>13.818277750933252</v>
+        <v>11.890045347481232</v>
       </c>
       <c r="H87" s="42" t="s">
         <v>22</v>
@@ -5330,7 +5330,7 @@
         <v>169</v>
       </c>
       <c r="G88" s="130">
-        <v>5.7810811792387452E-17</v>
+        <v>4.5526014286505121E-17</v>
       </c>
       <c r="H88" s="43" t="s">
         <v>22</v>
@@ -6397,7 +6397,7 @@
         <v>68</v>
       </c>
       <c r="G163" s="76">
-        <v>523.81818181818187</v>
+        <v>584.72727272727275</v>
       </c>
       <c r="H163" s="31" t="s">
         <v>43</v>
@@ -6413,7 +6413,7 @@
         <v>69</v>
       </c>
       <c r="G164" s="76">
-        <v>9828.8676914583339</v>
+        <v>9900.7482267906998</v>
       </c>
       <c r="H164" s="31" t="s">
         <v>43</v>
@@ -6429,7 +6429,7 @@
         <v>70</v>
       </c>
       <c r="G165" s="76">
-        <v>-41678.394882175919</v>
+        <v>-96255.608511404629</v>
       </c>
       <c r="H165" s="31" t="s">
         <v>73</v>
@@ -6445,7 +6445,7 @@
         <v>71</v>
       </c>
       <c r="G166" s="76">
-        <v>-986341.27683177101</v>
+        <v>-1100537.7872148838</v>
       </c>
       <c r="H166" s="31" t="s">
         <v>73</v>
@@ -6461,7 +6461,7 @@
         <v>72</v>
       </c>
       <c r="G167" s="77">
-        <v>57010.833333333336</v>
+        <v>71040</v>
       </c>
       <c r="H167" s="21" t="s">
         <v>73</v>
@@ -8081,16 +8081,16 @@
         <v>74</v>
       </c>
       <c r="G288" s="132">
-        <v>0.8306950738640132</v>
+        <v>0.21496005809731297</v>
       </c>
       <c r="H288" s="133">
-        <v>28.664393415913256</v>
+        <v>28.151620611309557</v>
       </c>
       <c r="I288" s="134">
-        <v>-1.9729008004270314</v>
+        <v>-0.3224400871459695</v>
       </c>
       <c r="J288" s="134">
-        <v>-28.404801205330749</v>
+        <v>-28.044140582260905</v>
       </c>
       <c r="K288" s="56" t="s">
         <v>47</v>
@@ -8156,16 +8156,16 @@
         <v>14</v>
       </c>
       <c r="G291" s="137">
-        <v>33.509253236957889</v>
+        <v>132.35810810810813</v>
       </c>
       <c r="H291" s="138">
-        <v>7.9305733787116139E-5</v>
+        <v>1.8295431814330243E-2</v>
       </c>
       <c r="I291" s="139">
-        <v>13.530211889245425</v>
+        <v>87.905405405405403</v>
       </c>
       <c r="J291" s="139">
-        <v>9.2190562941441012E-3</v>
+        <v>2.2198080293447608E-2</v>
       </c>
       <c r="K291" s="98">
         <v>1</v>
@@ -8548,16 +8548,16 @@
         <v>75</v>
       </c>
       <c r="G320" s="132">
-        <v>-16.706354128448325</v>
+        <v>-20.522171630227138</v>
       </c>
       <c r="H320" s="133">
-        <v>6.1367791219735599</v>
+        <v>8.1759576502009654</v>
       </c>
       <c r="I320" s="134">
-        <v>5.8950844007510277</v>
+        <v>7.875172016081998</v>
       </c>
       <c r="J320" s="134">
-        <v>-16.757237227653068</v>
+        <v>-20.722695386306452</v>
       </c>
       <c r="K320" s="56" t="s">
         <v>47</v>
@@ -8598,16 +8598,16 @@
         <v>14</v>
       </c>
       <c r="G322" s="137">
-        <v>0.11733933826293286</v>
+        <v>-9.0414649920746881E-2</v>
       </c>
       <c r="H322" s="138">
-        <v>2.0417693541923589</v>
+        <v>1.2831168488510749</v>
       </c>
       <c r="I322" s="139">
-        <v>2.1664799683425318</v>
+        <v>1.3703185947617662</v>
       </c>
       <c r="J322" s="139">
-        <v>0.11394655414095523</v>
+        <v>-9.9216278640972821E-2</v>
       </c>
       <c r="K322" s="98">
         <v>1</v>
@@ -9002,7 +9002,7 @@
         <v>190</v>
       </c>
       <c r="G351" s="140">
-        <v>5.4399363408157514E-2</v>
+        <v>1.6241710359357418E-2</v>
       </c>
       <c r="H351" s="20" t="s">
         <v>22</v>
@@ -9018,7 +9018,7 @@
         <v>191</v>
       </c>
       <c r="G352" s="99">
-        <v>6.6358467844496962</v>
+        <v>10.13588239466281</v>
       </c>
       <c r="H352" s="31" t="s">
         <v>22</v>
@@ -9034,7 +9034,7 @@
         <v>189</v>
       </c>
       <c r="G353" s="99">
-        <v>-2.484341438053278E-2</v>
+        <v>-0.36732038736099382</v>
       </c>
       <c r="H353" s="31" t="s">
         <v>41</v>
@@ -9050,7 +9050,7 @@
         <v>125</v>
       </c>
       <c r="G354" s="99">
-        <v>3.3835496985986518E-4</v>
+        <v>9.0497737556561084E-5</v>
       </c>
       <c r="H354" s="31" t="s">
         <v>126</v>
@@ -9066,7 +9066,7 @@
         <v>128</v>
       </c>
       <c r="G355" s="100">
-        <v>4.0725005999864096E-2</v>
+        <v>5.5654431448718067E-2</v>
       </c>
       <c r="H355" s="21" t="s">
         <v>126</v>

--- a/WI 24/SE 160A/MATLAB PROJECT 2/2024_SE160A_MATLAB_Wing_Student_Project (v2)/Wing_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 2/2024_SE160A_MATLAB_Wing_Student_Project (v2)/Wing_Analysis_Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 2\2024_SE160A_MATLAB_Wing_Student_Project (v2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF35058C-EB45-4B63-AC5F-2D64D3C3F295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0863621-37AA-4CF5-B530-80ACEB4BAFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="2235" windowWidth="19140" windowHeight="17145" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="2580" windowWidth="19140" windowHeight="17145" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="2" r:id="rId1"/>
@@ -2803,7 +2803,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC13BC97-5C44-BE07-A507-85A72BA63640}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61FBDCA8-B6BE-F741-6AF7-83CBEA9556D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2853,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C35AA5BA-AD1C-F291-F681-966360546448}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC47CAE7-765C-C976-C5C2-0A86D2DB3C4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2903,7 +2903,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09162C9B-5E93-EE03-AFF4-6BA9D95BDEE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9701074-6982-DA9F-6066-3E47972F7824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2953,7 +2953,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D11EAFC-4C8A-BA40-EAC9-902E4B4203D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85FA1D25-5DE3-A89B-1315-1D996C6C1FBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3003,7 +3003,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE556B4C-AD86-4DB9-B44A-415E08369F40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC13595-DC7C-9537-455C-A4093C72996A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3053,7 +3053,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49BC0D28-48A4-9D2E-A617-B150FB88612D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7BAA561-7808-BE73-FEE6-51785E087BA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3103,7 +3103,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABEC43F-A4E8-C3C7-C3B0-52876C947DD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75599BC5-3FAB-C3C3-3E3A-B4333C00BE7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3153,7 +3153,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DFA3EC9-15A0-CDB0-6DB5-E4D5C01456A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596AF653-A0DE-797E-2861-7EDDC70E694D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3203,7 +3203,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1501E7E7-9A85-8176-37D1-F807057F20A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{921C31C2-117F-4525-8411-50703D370EA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3253,7 +3253,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4548D13A-3C01-7779-D47A-98ACBE03F76B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52D4A18-FCB2-FE9C-1CCF-ED843C9B3137}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3303,7 +3303,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E3596C-85E4-61AA-4096-4A32AD69595B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F730C410-9339-5FD5-C0B2-CA6F29569BF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3353,7 +3353,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D905B369-3D73-1089-1C96-CFA38DC9F852}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318E3CF3-E42E-0DE9-DC71-5BE2C4B43F5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3403,7 +3403,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3FCD8B-BEEA-A69C-8D8B-2E939A879484}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85174F2C-D615-3757-DA44-35738D2BAC1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3453,7 +3453,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48005BCE-CF3F-26D3-9F9B-476E2EA9AE57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97578944-2C48-5DEC-A7D2-EF951DC08690}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3503,7 +3503,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA3788C-981B-5D6B-8D6A-60205989DE62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3E8879-6CB9-919F-4E33-AB3EE2BA88A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3553,7 +3553,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C59CAC3-C5CA-0046-D746-D8325A450C3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1129BC9-D23F-38E4-5343-E2EDC3401014}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4132,7 +4132,7 @@
         <v>135</v>
       </c>
       <c r="G23" s="110">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="H23" s="66" t="s">
         <v>22</v>
@@ -4148,7 +4148,7 @@
         <v>137</v>
       </c>
       <c r="G24" s="111">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H24" s="109" t="s">
         <v>22</v>
@@ -4164,7 +4164,7 @@
         <v>139</v>
       </c>
       <c r="G25" s="111">
-        <v>7.68</v>
+        <v>9.6</v>
       </c>
       <c r="H25" s="109" t="s">
         <v>22</v>
@@ -4235,7 +4235,7 @@
         <v>159</v>
       </c>
       <c r="G30" s="113">
-        <v>4.4999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H30" s="106" t="s">
         <v>22</v>
@@ -4384,13 +4384,13 @@
         <v>0</v>
       </c>
       <c r="H38" s="118">
-        <v>14.4</v>
+        <v>30</v>
       </c>
       <c r="I38" s="119">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="J38" s="120">
-        <v>14.4</v>
+        <v>15</v>
       </c>
       <c r="K38" s="143" t="s">
         <v>22</v>
@@ -4409,16 +4409,16 @@
         <v>149</v>
       </c>
       <c r="G39" s="121">
-        <v>5.0999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="H39" s="121">
-        <v>5.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="I39" s="121">
-        <v>5.0999999999999996</v>
+        <v>1.5</v>
       </c>
       <c r="J39" s="121">
-        <v>5.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="K39" s="80" t="s">
         <v>150</v>
@@ -4437,16 +4437,16 @@
         <v>152</v>
       </c>
       <c r="G40" s="121">
-        <v>0</v>
+        <v>5.2100000000000002E-3</v>
       </c>
       <c r="H40" s="121">
-        <v>0</v>
+        <v>1.04E-2</v>
       </c>
       <c r="I40" s="121">
-        <v>0</v>
+        <v>5.2100000000000002E-3</v>
       </c>
       <c r="J40" s="121">
-        <v>0</v>
+        <v>1.04E-2</v>
       </c>
       <c r="K40" s="80" t="s">
         <v>153</v>
@@ -4465,16 +4465,16 @@
         <v>155</v>
       </c>
       <c r="G41" s="121">
-        <v>0</v>
+        <v>5.2100000000000002E-3</v>
       </c>
       <c r="H41" s="121">
-        <v>0</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="I41" s="121">
-        <v>0</v>
+        <v>5.2100000000000002E-3</v>
       </c>
       <c r="J41" s="121">
-        <v>0</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="K41" s="80" t="s">
         <v>153</v>
@@ -5114,7 +5114,7 @@
         <v>210</v>
       </c>
       <c r="G73" s="148">
-        <v>626.53994031823709</v>
+        <v>333.17429244639351</v>
       </c>
       <c r="H73" s="149" t="s">
         <v>43</v>
@@ -5168,7 +5168,7 @@
         <v>163</v>
       </c>
       <c r="G79" s="128">
-        <v>19.2</v>
+        <v>27.397959183673468</v>
       </c>
       <c r="H79" s="41" t="s">
         <v>22</v>
@@ -5187,7 +5187,7 @@
         <v>165</v>
       </c>
       <c r="G80" s="129">
-        <v>0</v>
+        <v>-0.34285714285714286</v>
       </c>
       <c r="H80" s="42" t="s">
         <v>22</v>
@@ -5206,7 +5206,7 @@
         <v>208</v>
       </c>
       <c r="G81" s="129">
-        <v>2.6105830846593214</v>
+        <v>1.5496478718436908</v>
       </c>
       <c r="H81" s="42" t="s">
         <v>214</v>
@@ -5222,7 +5222,7 @@
         <v>57</v>
       </c>
       <c r="G82" s="129">
-        <v>204000000</v>
+        <v>98000000</v>
       </c>
       <c r="H82" s="42" t="s">
         <v>43</v>
@@ -5238,7 +5238,7 @@
         <v>58</v>
       </c>
       <c r="G83" s="129">
-        <v>1504051199.9999998</v>
+        <v>1762872200</v>
       </c>
       <c r="H83" s="42" t="s">
         <v>44</v>
@@ -5257,7 +5257,7 @@
         <v>59</v>
       </c>
       <c r="G84" s="129">
-        <v>63452160000</v>
+        <v>26112417791.836739</v>
       </c>
       <c r="H84" s="42" t="s">
         <v>44</v>
@@ -5276,7 +5276,7 @@
         <v>60</v>
       </c>
       <c r="G85" s="129">
-        <v>0</v>
+        <v>-2607428571.4285712</v>
       </c>
       <c r="H85" s="42" t="s">
         <v>44</v>
@@ -5295,7 +5295,7 @@
         <v>61</v>
       </c>
       <c r="G86" s="129">
-        <v>448516558.01054329</v>
+        <v>778674579.87941515</v>
       </c>
       <c r="H86" s="42" t="s">
         <v>44</v>
@@ -5311,7 +5311,7 @@
         <v>167</v>
       </c>
       <c r="G87" s="129">
-        <v>11.890045347481232</v>
+        <v>16.759497711518794</v>
       </c>
       <c r="H87" s="42" t="s">
         <v>22</v>
@@ -5330,7 +5330,7 @@
         <v>169</v>
       </c>
       <c r="G88" s="130">
-        <v>4.5526014286505121E-17</v>
+        <v>-0.18879994600399166</v>
       </c>
       <c r="H88" s="43" t="s">
         <v>22</v>
@@ -6397,7 +6397,7 @@
         <v>68</v>
       </c>
       <c r="G163" s="76">
-        <v>584.72727272727275</v>
+        <v>523.81818181818187</v>
       </c>
       <c r="H163" s="31" t="s">
         <v>43</v>
@@ -6413,7 +6413,7 @@
         <v>69</v>
       </c>
       <c r="G164" s="76">
-        <v>9900.7482267906998</v>
+        <v>9736.2043553703716</v>
       </c>
       <c r="H164" s="31" t="s">
         <v>43</v>
@@ -6429,7 +6429,7 @@
         <v>70</v>
       </c>
       <c r="G165" s="76">
-        <v>-96255.608511404629</v>
+        <v>-136654.59367642493</v>
       </c>
       <c r="H165" s="31" t="s">
         <v>73</v>
@@ -6445,7 +6445,7 @@
         <v>71</v>
       </c>
       <c r="G166" s="76">
-        <v>-1100537.7872148838</v>
+        <v>-976379.96820231492</v>
       </c>
       <c r="H166" s="31" t="s">
         <v>73</v>
@@ -6461,7 +6461,7 @@
         <v>72</v>
       </c>
       <c r="G167" s="77">
-        <v>71040</v>
+        <v>57010.833333333336</v>
       </c>
       <c r="H167" s="21" t="s">
         <v>73</v>
@@ -8081,16 +8081,16 @@
         <v>74</v>
       </c>
       <c r="G288" s="132">
-        <v>0.21496005809731297</v>
+        <v>16.238928635438633</v>
       </c>
       <c r="H288" s="133">
-        <v>28.151620611309557</v>
+        <v>27.377762713393054</v>
       </c>
       <c r="I288" s="134">
-        <v>-0.3224400871459695</v>
+        <v>-24.231055481377542</v>
       </c>
       <c r="J288" s="134">
-        <v>-28.044140582260905</v>
+        <v>-25.252393530127915</v>
       </c>
       <c r="K288" s="56" t="s">
         <v>47</v>
@@ -8156,16 +8156,16 @@
         <v>14</v>
       </c>
       <c r="G291" s="137">
-        <v>132.35810810810813</v>
+        <v>0.76530529262297886</v>
       </c>
       <c r="H291" s="138">
-        <v>1.8295431814330243E-2</v>
+        <v>4.7078498223782628E-2</v>
       </c>
       <c r="I291" s="139">
-        <v>87.905405405405403</v>
+        <v>0.18305480703050914</v>
       </c>
       <c r="J291" s="139">
-        <v>2.2198080293447608E-2</v>
+        <v>0.13520592146899979</v>
       </c>
       <c r="K291" s="98">
         <v>1</v>
@@ -8548,16 +8548,16 @@
         <v>75</v>
       </c>
       <c r="G320" s="132">
-        <v>-20.522171630227138</v>
+        <v>-14.910471894644257</v>
       </c>
       <c r="H320" s="133">
-        <v>8.1759576502009654</v>
+        <v>13.746521209684493</v>
       </c>
       <c r="I320" s="134">
-        <v>7.875172016081998</v>
+        <v>4.7104820475520688</v>
       </c>
       <c r="J320" s="134">
-        <v>-20.722695386306452</v>
+        <v>-17.33132924280217</v>
       </c>
       <c r="K320" s="56" t="s">
         <v>47</v>
@@ -8598,16 +8598,16 @@
         <v>14</v>
       </c>
       <c r="G322" s="137">
-        <v>-9.0414649920746881E-2</v>
+        <v>0.25191655895019749</v>
       </c>
       <c r="H322" s="138">
-        <v>1.2831168488510749</v>
+        <v>0.35791931514395858</v>
       </c>
       <c r="I322" s="139">
-        <v>1.3703185947617662</v>
+        <v>2.962793293388585</v>
       </c>
       <c r="J322" s="139">
-        <v>-9.9216278640972821E-2</v>
+        <v>7.7047605821640719E-2</v>
       </c>
       <c r="K322" s="98">
         <v>1</v>
@@ -9002,7 +9002,7 @@
         <v>190</v>
       </c>
       <c r="G351" s="140">
-        <v>1.6241710359357418E-2</v>
+        <v>0.75388545715227739</v>
       </c>
       <c r="H351" s="20" t="s">
         <v>22</v>
@@ -9018,7 +9018,7 @@
         <v>191</v>
       </c>
       <c r="G352" s="99">
-        <v>10.13588239466281</v>
+        <v>7.2953288008445556</v>
       </c>
       <c r="H352" s="31" t="s">
         <v>22</v>
@@ -9034,7 +9034,7 @@
         <v>189</v>
       </c>
       <c r="G353" s="99">
-        <v>-0.36732038736099382</v>
+        <v>-0.25190804292169333</v>
       </c>
       <c r="H353" s="31" t="s">
         <v>41</v>
@@ -9050,7 +9050,7 @@
         <v>125</v>
       </c>
       <c r="G354" s="99">
-        <v>9.0497737556561084E-5</v>
+        <v>4.6286612971106486E-3</v>
       </c>
       <c r="H354" s="31" t="s">
         <v>126</v>
@@ -9066,7 +9066,7 @@
         <v>128</v>
       </c>
       <c r="G355" s="100">
-        <v>5.5654431448718067E-2</v>
+        <v>4.4771040253722659E-2</v>
       </c>
       <c r="H355" s="21" t="s">
         <v>126</v>

--- a/WI 24/SE 160A/MATLAB PROJECT 2/2024_SE160A_MATLAB_Wing_Student_Project (v2)/Wing_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 2/2024_SE160A_MATLAB_Wing_Student_Project (v2)/Wing_Analysis_Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 2\2024_SE160A_MATLAB_Wing_Student_Project (v2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0863621-37AA-4CF5-B530-80ACEB4BAFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA19CCE8-36E8-4503-8F84-4E1F2A727CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="2580" windowWidth="19140" windowHeight="17145" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="9970" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="2" r:id="rId1"/>
@@ -2787,23 +2787,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>87086</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>716461</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:rowOff>2540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>134530</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>773430</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61FBDCA8-B6BE-F741-6AF7-83CBEA9556D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF146C72-8F68-33ED-6037-68EF3E2E022E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2825,8 +2825,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6335486" y="9432925"/>
-          <a:ext cx="4590869" cy="3724275"/>
+          <a:off x="6387011" y="9375140"/>
+          <a:ext cx="4616269" cy="3524250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2838,22 +2838,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
+      <xdr:colOff>70213</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>708841</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2539</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC47CAE7-765C-C976-C5C2-0A86D2DB3C4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D4B9065-7A48-52C8-C1D5-5095B4E29761}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2875,8 +2875,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="497840" y="18014950"/>
-          <a:ext cx="10368280" cy="4010025"/>
+          <a:off x="521063" y="17630139"/>
+          <a:ext cx="10417628" cy="3873500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2888,22 +2888,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
+      <xdr:colOff>70213</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>708841</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2539</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9701074-6982-DA9F-6066-3E47972F7824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{096B13B3-DD91-C279-0F31-F7628041B132}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2925,8 +2925,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="497840" y="22415500"/>
-          <a:ext cx="10368280" cy="4010025"/>
+          <a:off x="521063" y="21878289"/>
+          <a:ext cx="10417628" cy="3873500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2938,22 +2938,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
+      <xdr:colOff>70213</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>708841</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2539</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85FA1D25-5DE3-A89B-1315-1D996C6C1FBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED32143-646C-228E-46EA-00EFD137C25B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2975,8 +2975,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="497840" y="26816050"/>
-          <a:ext cx="10368280" cy="4010025"/>
+          <a:off x="521063" y="26126439"/>
+          <a:ext cx="10417628" cy="3873500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2988,22 +2988,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
+      <xdr:colOff>70213</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>708841</xdr:colOff>
       <xdr:row>191</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2539</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC13595-DC7C-9537-455C-A4093C72996A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A63EFF-742A-AB52-FB07-B303D7EC44B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3025,8 +3025,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="497840" y="33340675"/>
-          <a:ext cx="10368280" cy="4010025"/>
+          <a:off x="521063" y="32362139"/>
+          <a:ext cx="10417628" cy="3873500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3038,22 +3038,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
+      <xdr:colOff>70213</xdr:colOff>
       <xdr:row>193</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>708841</xdr:colOff>
       <xdr:row>214</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2539</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7BAA561-7808-BE73-FEE6-51785E087BA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114A8F53-DB57-20D7-B55C-A57AECEBEC31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3075,8 +3075,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="497840" y="37741225"/>
-          <a:ext cx="10368280" cy="4010025"/>
+          <a:off x="521063" y="36610289"/>
+          <a:ext cx="10417628" cy="3873500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3088,22 +3088,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
+      <xdr:colOff>70213</xdr:colOff>
       <xdr:row>216</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>708841</xdr:colOff>
       <xdr:row>237</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2539</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75599BC5-3FAB-C3C3-3E3A-B4333C00BE7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E32282B5-ACB4-DFEC-D350-2E9B80C2EB53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3125,8 +3125,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="497840" y="42141775"/>
-          <a:ext cx="10368280" cy="4010025"/>
+          <a:off x="521063" y="40858439"/>
+          <a:ext cx="10417628" cy="3873500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3138,22 +3138,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
+      <xdr:colOff>70213</xdr:colOff>
       <xdr:row>239</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>708841</xdr:colOff>
       <xdr:row>260</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2539</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596AF653-A0DE-797E-2861-7EDDC70E694D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5917F6E1-1CED-C649-7AC5-B0EF105F2B75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3175,8 +3175,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="497840" y="46542325"/>
-          <a:ext cx="10368280" cy="4010025"/>
+          <a:off x="521063" y="45106589"/>
+          <a:ext cx="10417628" cy="3873500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3188,22 +3188,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
+      <xdr:colOff>70213</xdr:colOff>
       <xdr:row>262</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>708841</xdr:colOff>
       <xdr:row>283</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2539</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{921C31C2-117F-4525-8411-50703D370EA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431DACEA-D1E5-21FD-AF68-F955AC92CCC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3225,8 +3225,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="497840" y="50942875"/>
-          <a:ext cx="10368280" cy="4010025"/>
+          <a:off x="521063" y="49354739"/>
+          <a:ext cx="10417628" cy="3873500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3238,22 +3238,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
+      <xdr:colOff>70213</xdr:colOff>
       <xdr:row>294</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>708841</xdr:colOff>
       <xdr:row>315</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52D4A18-FCB2-FE9C-1CCF-ED843C9B3137}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E72BE8-C241-A0A0-0B79-84520B35C454}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3275,8 +3275,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="497840" y="57181750"/>
-          <a:ext cx="10368280" cy="4010025"/>
+          <a:off x="521063" y="55361842"/>
+          <a:ext cx="10417628" cy="3873500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3288,22 +3288,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
+      <xdr:colOff>70213</xdr:colOff>
       <xdr:row>325</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>708841</xdr:colOff>
       <xdr:row>346</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F730C410-9339-5FD5-C0B2-CA6F29569BF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC7EA35-24A5-07C2-C3B0-BDE32B0DB057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3325,8 +3325,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="497840" y="63163450"/>
-          <a:ext cx="10368280" cy="4010025"/>
+          <a:off x="521063" y="61146692"/>
+          <a:ext cx="10417628" cy="3873500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3338,22 +3338,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
+      <xdr:colOff>70213</xdr:colOff>
       <xdr:row>358</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>708841</xdr:colOff>
       <xdr:row>379</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318E3CF3-E42E-0DE9-DC71-5BE2C4B43F5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E66CD868-27F5-8F04-AD3D-AA38582B6519}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3375,8 +3375,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="497840" y="69688075"/>
-          <a:ext cx="10368280" cy="4010025"/>
+          <a:off x="521063" y="67382392"/>
+          <a:ext cx="10417628" cy="3873500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3388,22 +3388,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
+      <xdr:colOff>70213</xdr:colOff>
       <xdr:row>381</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>708841</xdr:colOff>
       <xdr:row>402</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85174F2C-D615-3757-DA44-35738D2BAC1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA26905-B923-3A2A-B1B5-F33194DD28D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3425,8 +3425,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="497840" y="74088625"/>
-          <a:ext cx="10368280" cy="4010025"/>
+          <a:off x="521063" y="71630542"/>
+          <a:ext cx="10417628" cy="3873500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3438,22 +3438,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
+      <xdr:colOff>70213</xdr:colOff>
       <xdr:row>404</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>708841</xdr:colOff>
       <xdr:row>425</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97578944-2C48-5DEC-A7D2-EF951DC08690}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD761B1-A5F4-CB3C-B84A-922FC59BC359}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3475,8 +3475,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="497840" y="78489175"/>
-          <a:ext cx="10368280" cy="4010025"/>
+          <a:off x="521063" y="75878692"/>
+          <a:ext cx="10417628" cy="3873500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3488,22 +3488,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
+      <xdr:colOff>70213</xdr:colOff>
       <xdr:row>427</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>708841</xdr:colOff>
       <xdr:row>448</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3E8879-6CB9-919F-4E33-AB3EE2BA88A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A718307B-1029-D72A-9F34-A57208A9E2CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3525,8 +3525,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="497840" y="82889725"/>
-          <a:ext cx="10368280" cy="4010025"/>
+          <a:off x="521063" y="80126842"/>
+          <a:ext cx="10417628" cy="3873500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3538,22 +3538,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
+      <xdr:colOff>70213</xdr:colOff>
       <xdr:row>450</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>708841</xdr:colOff>
       <xdr:row>471</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>2542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1129BC9-D23F-38E4-5343-E2EDC3401014}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B884576-FDF8-3CFB-CEBD-54C2E8E5BE53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3575,8 +3575,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="497840" y="87290275"/>
-          <a:ext cx="10368280" cy="4010025"/>
+          <a:off x="521063" y="84374992"/>
+          <a:ext cx="10417628" cy="3873500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3890,28 +3890,28 @@
   </sheetPr>
   <dimension ref="A1:P477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
       <selection activeCell="G355" sqref="G355"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="1.7109375" customWidth="1"/>
+    <col min="1" max="2" width="1.7265625" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" customWidth="1"/>
-    <col min="7" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="3.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" customWidth="1"/>
+    <col min="6" max="6" width="36.1796875" customWidth="1"/>
+    <col min="7" max="11" width="12.54296875" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" customWidth="1"/>
+    <col min="13" max="13" width="14.81640625" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" customWidth="1"/>
     <col min="15" max="15" width="2" customWidth="1"/>
-    <col min="16" max="16" width="1.42578125" customWidth="1"/>
-    <col min="17" max="1024" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="1.453125" customWidth="1"/>
+    <col min="17" max="1024" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" customHeight="1"/>
-    <row r="2" spans="1:16" ht="8.4499999999999993" customHeight="1">
+    <row r="1" spans="1:16" ht="14.5" customHeight="1"/>
+    <row r="2" spans="1:16" ht="8.5" customHeight="1">
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
       <c r="D2" s="46"/>
@@ -3928,11 +3928,11 @@
       <c r="O2" s="45"/>
       <c r="P2" s="47"/>
     </row>
-    <row r="3" spans="1:16" ht="14.45" customHeight="1">
+    <row r="3" spans="1:16" ht="14.5" customHeight="1">
       <c r="B3" s="45"/>
       <c r="P3" s="45"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="20.45" customHeight="1">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="20.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="P4" s="45"/>
     </row>
-    <row r="5" spans="1:16" ht="14.45" customHeight="1">
+    <row r="5" spans="1:16" ht="14.5" customHeight="1">
       <c r="B5" s="45"/>
       <c r="D5" s="4" t="s">
         <v>92</v>
@@ -3950,13 +3950,13 @@
       <c r="L5" s="52"/>
       <c r="P5" s="45"/>
     </row>
-    <row r="6" spans="1:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="6" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B6" s="45"/>
       <c r="D6"/>
       <c r="E6" s="5"/>
       <c r="P6" s="45"/>
     </row>
-    <row r="7" spans="1:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="7" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B7" s="45"/>
       <c r="E7" s="6" t="s">
         <v>1</v>
@@ -3968,13 +3968,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="8" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B8" s="45"/>
       <c r="P8" s="45" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.45" customHeight="1">
+    <row r="9" spans="1:16" ht="14.5" customHeight="1">
       <c r="B9" s="45"/>
       <c r="E9" s="14" t="s">
         <v>8</v>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="P9" s="45"/>
     </row>
-    <row r="10" spans="1:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="10" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B10" s="45"/>
       <c r="E10" s="14" t="s">
         <v>9</v>
@@ -3994,11 +3994,11 @@
       </c>
       <c r="P10" s="45"/>
     </row>
-    <row r="11" spans="1:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="11" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B11" s="45"/>
       <c r="P11" s="45"/>
     </row>
-    <row r="12" spans="1:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="12" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B12" s="45"/>
       <c r="E12" s="6" t="s">
         <v>2</v>
@@ -4016,11 +4016,11 @@
       <c r="N12" s="152"/>
       <c r="P12" s="45"/>
     </row>
-    <row r="13" spans="1:16" ht="14.45" customHeight="1">
+    <row r="13" spans="1:16" ht="14.5" customHeight="1">
       <c r="B13" s="45"/>
       <c r="P13" s="45"/>
     </row>
-    <row r="14" spans="1:16" ht="14.45" customHeight="1">
+    <row r="14" spans="1:16" ht="14.5" customHeight="1">
       <c r="B14" s="45"/>
       <c r="D14" s="50" t="s">
         <v>10</v>
@@ -4037,18 +4037,18 @@
       <c r="N14" s="51"/>
       <c r="P14" s="45"/>
     </row>
-    <row r="15" spans="1:16" ht="14.45" customHeight="1">
+    <row r="15" spans="1:16" ht="14.5" customHeight="1">
       <c r="B15" s="45"/>
       <c r="P15" s="45"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1">
+    <row r="16" spans="1:16" ht="15" thickBot="1">
       <c r="B16" s="45"/>
       <c r="E16" s="16" t="s">
         <v>121</v>
       </c>
       <c r="P16" s="45"/>
     </row>
-    <row r="17" spans="2:16" ht="15.75" thickBot="1">
+    <row r="17" spans="2:16" ht="15" thickBot="1">
       <c r="B17" s="45"/>
       <c r="E17" s="11" t="s">
         <v>3</v>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="P18" s="45"/>
     </row>
-    <row r="19" spans="2:16" ht="15.75" thickBot="1">
+    <row r="19" spans="2:16" ht="15" thickBot="1">
       <c r="B19" s="45"/>
       <c r="E19" s="38" t="s">
         <v>0</v>
@@ -4096,18 +4096,18 @@
       </c>
       <c r="P19" s="45"/>
     </row>
-    <row r="20" spans="2:16" ht="14.45" customHeight="1">
+    <row r="20" spans="2:16" ht="14.5" customHeight="1">
       <c r="B20" s="45"/>
       <c r="P20" s="45"/>
     </row>
-    <row r="21" spans="2:16" ht="15.75" thickBot="1">
+    <row r="21" spans="2:16" ht="15" thickBot="1">
       <c r="B21" s="45"/>
       <c r="E21" s="16" t="s">
         <v>134</v>
       </c>
       <c r="P21" s="45"/>
     </row>
-    <row r="22" spans="2:16" ht="15.75" thickBot="1">
+    <row r="22" spans="2:16" ht="15" thickBot="1">
       <c r="B22" s="45"/>
       <c r="E22" s="11" t="s">
         <v>3</v>
@@ -4132,7 +4132,7 @@
         <v>135</v>
       </c>
       <c r="G23" s="110">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="H23" s="66" t="s">
         <v>22</v>
@@ -4148,14 +4148,14 @@
         <v>137</v>
       </c>
       <c r="G24" s="111">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H24" s="109" t="s">
         <v>22</v>
       </c>
       <c r="P24" s="45"/>
     </row>
-    <row r="25" spans="2:16" ht="16.5">
+    <row r="25" spans="2:16" ht="17">
       <c r="B25" s="45"/>
       <c r="E25" s="24" t="s">
         <v>138</v>
@@ -4164,14 +4164,14 @@
         <v>139</v>
       </c>
       <c r="G25" s="111">
-        <v>9.6</v>
+        <v>7.68</v>
       </c>
       <c r="H25" s="109" t="s">
         <v>22</v>
       </c>
       <c r="P25" s="45"/>
     </row>
-    <row r="26" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="26" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B26" s="45"/>
       <c r="E26" s="38" t="s">
         <v>211</v>
@@ -4190,14 +4190,14 @@
       <c r="N26" s="64"/>
       <c r="P26" s="45"/>
     </row>
-    <row r="27" spans="2:16" ht="14.45" customHeight="1">
+    <row r="27" spans="2:16" ht="14.5" customHeight="1">
       <c r="B27" s="45"/>
       <c r="L27" s="64"/>
       <c r="M27" s="64"/>
       <c r="N27" s="64"/>
       <c r="P27" s="45"/>
     </row>
-    <row r="28" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="28" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B28" s="45"/>
       <c r="E28" s="16" t="s">
         <v>158</v>
@@ -4207,7 +4207,7 @@
       <c r="N28" s="64"/>
       <c r="P28" s="45"/>
     </row>
-    <row r="29" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="29" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B29" s="45"/>
       <c r="E29" s="26" t="s">
         <v>3</v>
@@ -4226,7 +4226,7 @@
       <c r="N29" s="64"/>
       <c r="P29" s="45"/>
     </row>
-    <row r="30" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="30" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B30" s="45"/>
       <c r="E30" s="87" t="s">
         <v>25</v>
@@ -4235,7 +4235,7 @@
         <v>159</v>
       </c>
       <c r="G30" s="113">
-        <v>0.04</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H30" s="106" t="s">
         <v>22</v>
@@ -4245,7 +4245,7 @@
       <c r="N30" s="64"/>
       <c r="P30" s="45"/>
     </row>
-    <row r="31" spans="2:16" ht="14.45" customHeight="1">
+    <row r="31" spans="2:16" ht="14.5" customHeight="1">
       <c r="B31" s="45"/>
       <c r="D31" s="153" t="s">
         <v>203</v>
@@ -4267,7 +4267,7 @@
       <c r="N31" s="64"/>
       <c r="P31" s="45"/>
     </row>
-    <row r="32" spans="2:16" ht="14.45" customHeight="1">
+    <row r="32" spans="2:16" ht="14.5" customHeight="1">
       <c r="B32" s="45"/>
       <c r="D32" s="154"/>
       <c r="E32" s="24" t="s">
@@ -4287,7 +4287,7 @@
       <c r="N32" s="64"/>
       <c r="P32" s="45"/>
     </row>
-    <row r="33" spans="2:16" ht="14.45" customHeight="1">
+    <row r="33" spans="2:16" ht="14.5" customHeight="1">
       <c r="B33" s="45"/>
       <c r="D33" s="154"/>
       <c r="E33" s="19" t="s">
@@ -4307,7 +4307,7 @@
       <c r="N33" s="64"/>
       <c r="P33" s="45"/>
     </row>
-    <row r="34" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="34" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B34" s="45"/>
       <c r="D34" s="155"/>
       <c r="E34" s="22" t="s">
@@ -4327,14 +4327,14 @@
       <c r="N34" s="64"/>
       <c r="P34" s="45"/>
     </row>
-    <row r="35" spans="2:16" ht="14.45" customHeight="1">
+    <row r="35" spans="2:16" ht="14.5" customHeight="1">
       <c r="B35" s="45"/>
       <c r="L35" s="64"/>
       <c r="M35" s="64"/>
       <c r="N35" s="64"/>
       <c r="P35" s="45"/>
     </row>
-    <row r="36" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="36" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B36" s="45"/>
       <c r="E36" s="16" t="s">
         <v>141</v>
@@ -4344,7 +4344,7 @@
       <c r="N36" s="64"/>
       <c r="P36" s="45"/>
     </row>
-    <row r="37" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="37" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B37" s="45"/>
       <c r="E37" s="26" t="s">
         <v>3</v>
@@ -4384,13 +4384,13 @@
         <v>0</v>
       </c>
       <c r="H38" s="118">
-        <v>30</v>
+        <v>22.08</v>
       </c>
       <c r="I38" s="119">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J38" s="120">
-        <v>15</v>
+        <v>22.08</v>
       </c>
       <c r="K38" s="143" t="s">
         <v>22</v>
@@ -4409,16 +4409,16 @@
         <v>149</v>
       </c>
       <c r="G39" s="121">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="H39" s="121">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="I39" s="121">
-        <v>1.5</v>
+        <v>5.2</v>
       </c>
       <c r="J39" s="121">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="K39" s="80" t="s">
         <v>150</v>
@@ -4437,16 +4437,16 @@
         <v>152</v>
       </c>
       <c r="G40" s="121">
-        <v>5.2100000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="H40" s="121">
-        <v>1.04E-2</v>
+        <v>0</v>
       </c>
       <c r="I40" s="121">
-        <v>5.2100000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="J40" s="121">
-        <v>1.04E-2</v>
+        <v>0</v>
       </c>
       <c r="K40" s="80" t="s">
         <v>153</v>
@@ -4465,16 +4465,16 @@
         <v>155</v>
       </c>
       <c r="G41" s="121">
-        <v>5.2100000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="H41" s="121">
-        <v>4.1700000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I41" s="121">
-        <v>5.2100000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="J41" s="121">
-        <v>4.1700000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K41" s="80" t="s">
         <v>153</v>
@@ -4484,7 +4484,7 @@
       <c r="N41" s="64"/>
       <c r="P41" s="45"/>
     </row>
-    <row r="42" spans="2:16" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="42" spans="2:16" ht="17.149999999999999" customHeight="1" thickBot="1">
       <c r="B42" s="45"/>
       <c r="E42" s="81" t="s">
         <v>156</v>
@@ -4688,7 +4688,7 @@
       <c r="N48" s="64"/>
       <c r="P48" s="45"/>
     </row>
-    <row r="49" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="49" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B49" s="45"/>
       <c r="D49" s="108"/>
       <c r="E49" s="107" t="s">
@@ -4705,7 +4705,7 @@
       <c r="N50" s="72"/>
       <c r="P50" s="45"/>
     </row>
-    <row r="51" spans="2:16" ht="15.75" thickBot="1">
+    <row r="51" spans="2:16" ht="15" thickBot="1">
       <c r="B51" s="45"/>
       <c r="E51" s="16" t="s">
         <v>95</v>
@@ -4719,7 +4719,7 @@
       <c r="N51" s="74"/>
       <c r="P51" s="45"/>
     </row>
-    <row r="52" spans="2:16" ht="15.75" thickBot="1">
+    <row r="52" spans="2:16" ht="15" thickBot="1">
       <c r="B52" s="45"/>
       <c r="E52" s="89" t="s">
         <v>3</v>
@@ -4742,7 +4742,7 @@
       <c r="N52" s="74"/>
       <c r="P52" s="45"/>
     </row>
-    <row r="53" spans="2:16" ht="14.45" customHeight="1">
+    <row r="53" spans="2:16" ht="14.5" customHeight="1">
       <c r="B53" s="45"/>
       <c r="D53" s="1" t="s">
         <v>0</v>
@@ -4768,7 +4768,7 @@
       <c r="N53" s="145"/>
       <c r="P53" s="45"/>
     </row>
-    <row r="54" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="54" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B54" s="45"/>
       <c r="D54" s="1" t="s">
         <v>0</v>
@@ -4801,7 +4801,7 @@
       <c r="N55" s="74"/>
       <c r="P55" s="45"/>
     </row>
-    <row r="56" spans="2:16" ht="15.75" thickBot="1">
+    <row r="56" spans="2:16" ht="15" thickBot="1">
       <c r="B56" s="45"/>
       <c r="E56" s="16" t="s">
         <v>96</v>
@@ -4813,7 +4813,7 @@
       <c r="N56" s="74"/>
       <c r="P56" s="45"/>
     </row>
-    <row r="57" spans="2:16" ht="15.75" thickBot="1">
+    <row r="57" spans="2:16" ht="15" thickBot="1">
       <c r="B57" s="45"/>
       <c r="E57" s="26" t="s">
         <v>3</v>
@@ -4858,7 +4858,7 @@
       <c r="N58" s="74"/>
       <c r="P58" s="45"/>
     </row>
-    <row r="59" spans="2:16" ht="18">
+    <row r="59" spans="2:16" ht="16.5">
       <c r="B59" s="45"/>
       <c r="D59" s="1" t="s">
         <v>0</v>
@@ -4882,7 +4882,7 @@
       <c r="N59" s="74"/>
       <c r="P59" s="45"/>
     </row>
-    <row r="60" spans="2:16" ht="18">
+    <row r="60" spans="2:16" ht="16.5">
       <c r="B60" s="45"/>
       <c r="D60" s="1" t="s">
         <v>0</v>
@@ -4930,7 +4930,7 @@
       <c r="N61" s="74"/>
       <c r="P61" s="45"/>
     </row>
-    <row r="62" spans="2:16" ht="18">
+    <row r="62" spans="2:16" ht="16.5">
       <c r="B62" s="45"/>
       <c r="D62" s="1" t="s">
         <v>0</v>
@@ -4954,7 +4954,7 @@
       <c r="N62" s="74"/>
       <c r="P62" s="45"/>
     </row>
-    <row r="63" spans="2:16" ht="18">
+    <row r="63" spans="2:16" ht="16.5">
       <c r="B63" s="45"/>
       <c r="D63" s="1" t="s">
         <v>0</v>
@@ -4980,7 +4980,7 @@
       <c r="N63" s="74"/>
       <c r="P63" s="45"/>
     </row>
-    <row r="64" spans="2:16" ht="18">
+    <row r="64" spans="2:16" ht="16.5">
       <c r="B64" s="45"/>
       <c r="D64" s="1" t="s">
         <v>0</v>
@@ -5004,7 +5004,7 @@
       <c r="N64" s="74"/>
       <c r="P64" s="45"/>
     </row>
-    <row r="65" spans="2:16" ht="18">
+    <row r="65" spans="2:16" ht="16.5">
       <c r="B65" s="45"/>
       <c r="D65" s="1" t="s">
         <v>0</v>
@@ -5028,7 +5028,7 @@
       <c r="N65" s="74"/>
       <c r="P65" s="45"/>
     </row>
-    <row r="66" spans="2:16" ht="18.75" thickBot="1">
+    <row r="66" spans="2:16" ht="17" thickBot="1">
       <c r="B66" s="45"/>
       <c r="D66" s="1" t="s">
         <v>0</v>
@@ -5052,7 +5052,7 @@
       <c r="N66" s="75"/>
       <c r="P66" s="45"/>
     </row>
-    <row r="67" spans="2:16" ht="14.45" customHeight="1">
+    <row r="67" spans="2:16" ht="14.5" customHeight="1">
       <c r="B67" s="45"/>
       <c r="P67" s="45"/>
     </row>
@@ -5081,7 +5081,7 @@
       <c r="B70" s="45"/>
       <c r="P70" s="45"/>
     </row>
-    <row r="71" spans="2:16" ht="15.75" thickBot="1">
+    <row r="71" spans="2:16" ht="15" thickBot="1">
       <c r="B71" s="45"/>
       <c r="E71" s="16" t="s">
         <v>213</v>
@@ -5089,7 +5089,7 @@
       <c r="G71" s="131"/>
       <c r="P71" s="45"/>
     </row>
-    <row r="72" spans="2:16" ht="15.75" thickBot="1">
+    <row r="72" spans="2:16" ht="15" thickBot="1">
       <c r="B72" s="45"/>
       <c r="E72" s="11" t="s">
         <v>3</v>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="P72" s="45"/>
     </row>
-    <row r="73" spans="2:16" ht="15.75" thickBot="1">
+    <row r="73" spans="2:16" ht="15" thickBot="1">
       <c r="B73" s="45"/>
       <c r="E73" s="146" t="s">
         <v>209</v>
@@ -5114,7 +5114,7 @@
         <v>210</v>
       </c>
       <c r="G73" s="148">
-        <v>333.17429244639351</v>
+        <v>636.61994031823724</v>
       </c>
       <c r="H73" s="149" t="s">
         <v>43</v>
@@ -5136,14 +5136,14 @@
       <c r="B76" s="45"/>
       <c r="P76" s="45"/>
     </row>
-    <row r="77" spans="2:16" ht="15.75" thickBot="1">
+    <row r="77" spans="2:16" ht="15" thickBot="1">
       <c r="B77" s="45"/>
       <c r="E77" s="16" t="s">
         <v>161</v>
       </c>
       <c r="P77" s="45"/>
     </row>
-    <row r="78" spans="2:16" ht="15.75" thickBot="1">
+    <row r="78" spans="2:16" ht="15" thickBot="1">
       <c r="B78" s="45"/>
       <c r="E78" s="11" t="s">
         <v>3</v>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="P78" s="45"/>
     </row>
-    <row r="79" spans="2:16" ht="16.5">
+    <row r="79" spans="2:16" ht="17">
       <c r="B79" s="45"/>
       <c r="E79" s="29" t="s">
         <v>162</v>
@@ -5168,7 +5168,7 @@
         <v>163</v>
       </c>
       <c r="G79" s="128">
-        <v>27.397959183673468</v>
+        <v>23.04</v>
       </c>
       <c r="H79" s="41" t="s">
         <v>22</v>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="P79" s="45"/>
     </row>
-    <row r="80" spans="2:16" ht="16.5">
+    <row r="80" spans="2:16" ht="17">
       <c r="B80" s="45"/>
       <c r="E80" s="24" t="s">
         <v>164</v>
@@ -5187,7 +5187,7 @@
         <v>165</v>
       </c>
       <c r="G80" s="129">
-        <v>-0.34285714285714286</v>
+        <v>0</v>
       </c>
       <c r="H80" s="42" t="s">
         <v>22</v>
@@ -5206,7 +5206,7 @@
         <v>208</v>
       </c>
       <c r="G81" s="129">
-        <v>1.5496478718436908</v>
+        <v>2.6525830846593217</v>
       </c>
       <c r="H81" s="42" t="s">
         <v>214</v>
@@ -5222,14 +5222,14 @@
         <v>57</v>
       </c>
       <c r="G82" s="129">
-        <v>98000000</v>
+        <v>208000000</v>
       </c>
       <c r="H82" s="42" t="s">
         <v>43</v>
       </c>
       <c r="P82" s="45"/>
     </row>
-    <row r="83" spans="2:16" ht="18">
+    <row r="83" spans="2:16" ht="17.5">
       <c r="B83" s="45"/>
       <c r="E83" s="24" t="s">
         <v>46</v>
@@ -5238,7 +5238,7 @@
         <v>58</v>
       </c>
       <c r="G83" s="129">
-        <v>1762872200</v>
+        <v>1533542400</v>
       </c>
       <c r="H83" s="42" t="s">
         <v>44</v>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="P83" s="45"/>
     </row>
-    <row r="84" spans="2:16" ht="18">
+    <row r="84" spans="2:16" ht="17.5">
       <c r="B84" s="45"/>
       <c r="E84" s="24" t="s">
         <v>84</v>
@@ -5257,7 +5257,7 @@
         <v>59</v>
       </c>
       <c r="G84" s="129">
-        <v>26112417791.836739</v>
+        <v>60095692800</v>
       </c>
       <c r="H84" s="42" t="s">
         <v>44</v>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="P84" s="45"/>
     </row>
-    <row r="85" spans="2:16" ht="18">
+    <row r="85" spans="2:16" ht="17.5">
       <c r="B85" s="45"/>
       <c r="E85" s="24" t="s">
         <v>85</v>
@@ -5276,7 +5276,7 @@
         <v>60</v>
       </c>
       <c r="G85" s="129">
-        <v>-2607428571.4285712</v>
+        <v>0</v>
       </c>
       <c r="H85" s="42" t="s">
         <v>44</v>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="P85" s="45"/>
     </row>
-    <row r="86" spans="2:16" ht="17.25">
+    <row r="86" spans="2:16" ht="16.5">
       <c r="B86" s="45"/>
       <c r="E86" s="24" t="s">
         <v>86</v>
@@ -5295,14 +5295,14 @@
         <v>61</v>
       </c>
       <c r="G86" s="129">
-        <v>778674579.87941515</v>
+        <v>448516558.01054317</v>
       </c>
       <c r="H86" s="42" t="s">
         <v>44</v>
       </c>
       <c r="P86" s="45"/>
     </row>
-    <row r="87" spans="2:16" ht="16.5">
+    <row r="87" spans="2:16" ht="17">
       <c r="B87" s="45"/>
       <c r="E87" s="24" t="s">
         <v>166</v>
@@ -5311,7 +5311,7 @@
         <v>167</v>
       </c>
       <c r="G87" s="129">
-        <v>16.759497711518794</v>
+        <v>14.563968759140353</v>
       </c>
       <c r="H87" s="42" t="s">
         <v>22</v>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="P87" s="45"/>
     </row>
-    <row r="88" spans="2:16" ht="17.25" thickBot="1">
+    <row r="88" spans="2:16" ht="17.5" thickBot="1">
       <c r="B88" s="45"/>
       <c r="E88" s="38" t="s">
         <v>168</v>
@@ -5330,7 +5330,7 @@
         <v>169</v>
       </c>
       <c r="G88" s="130">
-        <v>-0.18879994600399166</v>
+        <v>0</v>
       </c>
       <c r="H88" s="43" t="s">
         <v>22</v>
@@ -5350,7 +5350,7 @@
       <c r="B90" s="45"/>
       <c r="P90" s="45"/>
     </row>
-    <row r="91" spans="2:16" ht="15.75" thickBot="1">
+    <row r="91" spans="2:16" ht="15" thickBot="1">
       <c r="B91" s="45"/>
       <c r="E91" s="16" t="s">
         <v>170</v>
@@ -5711,7 +5711,7 @@
       <c r="N111" s="74"/>
       <c r="P111" s="45"/>
     </row>
-    <row r="112" spans="2:16" ht="15.75" thickBot="1">
+    <row r="112" spans="2:16" ht="15" thickBot="1">
       <c r="B112" s="45"/>
       <c r="E112" s="60"/>
       <c r="F112" s="61"/>
@@ -5729,7 +5729,7 @@
       <c r="B113" s="45"/>
       <c r="P113" s="45"/>
     </row>
-    <row r="114" spans="2:16" ht="15.75" thickBot="1">
+    <row r="114" spans="2:16" ht="15" thickBot="1">
       <c r="B114" s="45"/>
       <c r="E114" s="16" t="s">
         <v>171</v>
@@ -6029,7 +6029,7 @@
       <c r="N134" s="74"/>
       <c r="P134" s="45"/>
     </row>
-    <row r="135" spans="2:16" ht="15.75" thickBot="1">
+    <row r="135" spans="2:16" ht="15" thickBot="1">
       <c r="B135" s="45"/>
       <c r="E135" s="60"/>
       <c r="F135" s="61"/>
@@ -6047,7 +6047,7 @@
       <c r="B136" s="45"/>
       <c r="P136" s="45"/>
     </row>
-    <row r="137" spans="2:16" ht="15.75" thickBot="1">
+    <row r="137" spans="2:16" ht="15" thickBot="1">
       <c r="B137" s="45"/>
       <c r="E137" s="16" t="s">
         <v>172</v>
@@ -6340,7 +6340,7 @@
       <c r="N157" s="74"/>
       <c r="P157" s="45"/>
     </row>
-    <row r="158" spans="2:16" ht="15.75" thickBot="1">
+    <row r="158" spans="2:16" ht="15" thickBot="1">
       <c r="B158" s="45"/>
       <c r="E158" s="60"/>
       <c r="F158" s="61"/>
@@ -6362,7 +6362,7 @@
       <c r="B160" s="45"/>
       <c r="P160" s="45"/>
     </row>
-    <row r="161" spans="2:16" ht="15.75" thickBot="1">
+    <row r="161" spans="2:16" ht="15" thickBot="1">
       <c r="B161" s="45"/>
       <c r="E161" s="16" t="s">
         <v>37</v>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="P161" s="45"/>
     </row>
-    <row r="162" spans="2:16" ht="15.75" thickBot="1">
+    <row r="162" spans="2:16" ht="15" thickBot="1">
       <c r="B162" s="45"/>
       <c r="E162" s="26" t="s">
         <v>3</v>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="P162" s="45"/>
     </row>
-    <row r="163" spans="2:16" ht="18">
+    <row r="163" spans="2:16" ht="16.5">
       <c r="B163" s="45"/>
       <c r="E163" s="39" t="s">
         <v>48</v>
@@ -6397,14 +6397,14 @@
         <v>68</v>
       </c>
       <c r="G163" s="76">
-        <v>523.81818181818187</v>
+        <v>584.72727272727275</v>
       </c>
       <c r="H163" s="31" t="s">
         <v>43</v>
       </c>
       <c r="P163" s="45"/>
     </row>
-    <row r="164" spans="2:16" ht="18">
+    <row r="164" spans="2:16" ht="16.5">
       <c r="B164" s="45"/>
       <c r="E164" s="39" t="s">
         <v>49</v>
@@ -6413,14 +6413,14 @@
         <v>69</v>
       </c>
       <c r="G164" s="76">
-        <v>9736.2043553703716</v>
+        <v>9862.4442267906998</v>
       </c>
       <c r="H164" s="31" t="s">
         <v>43</v>
       </c>
       <c r="P164" s="45"/>
     </row>
-    <row r="165" spans="2:16" ht="18">
+    <row r="165" spans="2:16" ht="16.5">
       <c r="B165" s="45"/>
       <c r="E165" s="39" t="s">
         <v>50</v>
@@ -6429,14 +6429,14 @@
         <v>70</v>
       </c>
       <c r="G165" s="76">
-        <v>-136654.59367642493</v>
+        <v>-134311.25354228093</v>
       </c>
       <c r="H165" s="31" t="s">
         <v>73</v>
       </c>
       <c r="P165" s="45"/>
     </row>
-    <row r="166" spans="2:16" ht="18">
+    <row r="166" spans="2:16" ht="16.5">
       <c r="B166" s="45"/>
       <c r="E166" s="39" t="s">
         <v>51</v>
@@ -6445,14 +6445,14 @@
         <v>71</v>
       </c>
       <c r="G166" s="76">
-        <v>-976379.96820231492</v>
+        <v>-1095941.3072148839</v>
       </c>
       <c r="H166" s="31" t="s">
         <v>73</v>
       </c>
       <c r="P166" s="45"/>
     </row>
-    <row r="167" spans="2:16" ht="18.75" thickBot="1">
+    <row r="167" spans="2:16" ht="17" thickBot="1">
       <c r="B167" s="45"/>
       <c r="E167" s="40" t="s">
         <v>52</v>
@@ -6461,7 +6461,7 @@
         <v>72</v>
       </c>
       <c r="G167" s="77">
-        <v>57010.833333333336</v>
+        <v>71040</v>
       </c>
       <c r="H167" s="21" t="s">
         <v>73</v>
@@ -6479,7 +6479,7 @@
       <c r="B169" s="45"/>
       <c r="P169" s="45"/>
     </row>
-    <row r="170" spans="2:16" ht="15.75" thickBot="1">
+    <row r="170" spans="2:16" ht="15" thickBot="1">
       <c r="B170" s="45"/>
       <c r="E170" s="16" t="s">
         <v>87</v>
@@ -6772,7 +6772,7 @@
       <c r="N190" s="74"/>
       <c r="P190" s="45"/>
     </row>
-    <row r="191" spans="2:16" ht="15.75" thickBot="1">
+    <row r="191" spans="2:16" ht="15" thickBot="1">
       <c r="B191" s="45"/>
       <c r="E191" s="60"/>
       <c r="F191" s="61"/>
@@ -6790,7 +6790,7 @@
       <c r="B192" s="45"/>
       <c r="P192" s="45"/>
     </row>
-    <row r="193" spans="2:16" ht="15.75" thickBot="1">
+    <row r="193" spans="2:16" ht="15" thickBot="1">
       <c r="B193" s="45"/>
       <c r="E193" s="16" t="s">
         <v>88</v>
@@ -7083,7 +7083,7 @@
       <c r="N213" s="74"/>
       <c r="P213" s="45"/>
     </row>
-    <row r="214" spans="2:16" ht="15.75" thickBot="1">
+    <row r="214" spans="2:16" ht="15" thickBot="1">
       <c r="B214" s="45"/>
       <c r="E214" s="60"/>
       <c r="F214" s="61"/>
@@ -7101,7 +7101,7 @@
       <c r="B215" s="45"/>
       <c r="P215" s="45"/>
     </row>
-    <row r="216" spans="2:16" ht="15.75" thickBot="1">
+    <row r="216" spans="2:16" ht="15" thickBot="1">
       <c r="B216" s="45"/>
       <c r="E216" s="16" t="s">
         <v>91</v>
@@ -7394,7 +7394,7 @@
       <c r="N236" s="74"/>
       <c r="P236" s="45"/>
     </row>
-    <row r="237" spans="2:16" ht="15.75" thickBot="1">
+    <row r="237" spans="2:16" ht="15" thickBot="1">
       <c r="B237" s="45"/>
       <c r="E237" s="60"/>
       <c r="F237" s="61"/>
@@ -7412,7 +7412,7 @@
       <c r="B238" s="45"/>
       <c r="P238" s="45"/>
     </row>
-    <row r="239" spans="2:16" ht="15.75" thickBot="1">
+    <row r="239" spans="2:16" ht="15" thickBot="1">
       <c r="B239" s="45"/>
       <c r="E239" s="16" t="s">
         <v>89</v>
@@ -7707,7 +7707,7 @@
       <c r="N259" s="74"/>
       <c r="P259" s="45"/>
     </row>
-    <row r="260" spans="2:16" ht="15.75" thickBot="1">
+    <row r="260" spans="2:16" ht="15" thickBot="1">
       <c r="B260" s="45"/>
       <c r="E260" s="60"/>
       <c r="F260" s="61"/>
@@ -7725,7 +7725,7 @@
       <c r="B261" s="45"/>
       <c r="P261" s="45"/>
     </row>
-    <row r="262" spans="2:16" ht="15.75" thickBot="1">
+    <row r="262" spans="2:16" ht="15" thickBot="1">
       <c r="B262" s="45"/>
       <c r="E262" s="16" t="s">
         <v>90</v>
@@ -8018,7 +8018,7 @@
       <c r="N282" s="74"/>
       <c r="P282" s="45"/>
     </row>
-    <row r="283" spans="2:16" ht="15.75" thickBot="1">
+    <row r="283" spans="2:16" ht="15" thickBot="1">
       <c r="B283" s="45"/>
       <c r="E283" s="60"/>
       <c r="F283" s="61"/>
@@ -8040,14 +8040,14 @@
       <c r="B285" s="45"/>
       <c r="P285" s="45"/>
     </row>
-    <row r="286" spans="2:16" ht="15.75" thickBot="1">
+    <row r="286" spans="2:16" ht="15" thickBot="1">
       <c r="B286" s="45"/>
       <c r="E286" s="16" t="s">
         <v>173</v>
       </c>
       <c r="P286" s="45"/>
     </row>
-    <row r="287" spans="2:16" ht="15.75" thickBot="1">
+    <row r="287" spans="2:16" ht="15" thickBot="1">
       <c r="B287" s="45"/>
       <c r="E287" s="26" t="s">
         <v>3</v>
@@ -8072,7 +8072,7 @@
       </c>
       <c r="P287" s="45"/>
     </row>
-    <row r="288" spans="2:16" ht="16.5">
+    <row r="288" spans="2:16" ht="17">
       <c r="B288" s="45"/>
       <c r="E288" s="55" t="s">
         <v>42</v>
@@ -8081,23 +8081,23 @@
         <v>74</v>
       </c>
       <c r="G288" s="132">
-        <v>16.238928635438633</v>
+        <v>0.27235921972764077</v>
       </c>
       <c r="H288" s="133">
-        <v>27.377762713393054</v>
+        <v>27.453788886130582</v>
       </c>
       <c r="I288" s="134">
-        <v>-24.231055481377542</v>
+        <v>-0.29505582137161085</v>
       </c>
       <c r="J288" s="134">
-        <v>-25.252393530127915</v>
+        <v>-27.431092284486606</v>
       </c>
       <c r="K288" s="56" t="s">
         <v>47</v>
       </c>
       <c r="P288" s="45"/>
     </row>
-    <row r="289" spans="2:16" ht="18">
+    <row r="289" spans="2:16" ht="16.5">
       <c r="B289" s="45"/>
       <c r="E289" s="95" t="s">
         <v>176</v>
@@ -8122,7 +8122,7 @@
       </c>
       <c r="P289" s="45"/>
     </row>
-    <row r="290" spans="2:16" ht="18">
+    <row r="290" spans="2:16" ht="16.5">
       <c r="B290" s="45"/>
       <c r="E290" s="95" t="s">
         <v>178</v>
@@ -8147,7 +8147,7 @@
       </c>
       <c r="P290" s="45"/>
     </row>
-    <row r="291" spans="2:16" ht="15.75" thickBot="1">
+    <row r="291" spans="2:16" ht="15" thickBot="1">
       <c r="B291" s="45"/>
       <c r="E291" s="38" t="s">
         <v>13</v>
@@ -8156,16 +8156,16 @@
         <v>14</v>
       </c>
       <c r="G291" s="137">
-        <v>0.76530529262297886</v>
+        <v>104.25315315315316</v>
       </c>
       <c r="H291" s="138">
-        <v>4.7078498223782628E-2</v>
+        <v>4.417888494614397E-2</v>
       </c>
       <c r="I291" s="139">
-        <v>0.18305480703050914</v>
+        <v>96.156756756756764</v>
       </c>
       <c r="J291" s="139">
-        <v>0.13520592146899979</v>
+        <v>4.5042842966877661E-2</v>
       </c>
       <c r="K291" s="98">
         <v>1</v>
@@ -8192,7 +8192,7 @@
       <c r="B293" s="45"/>
       <c r="P293" s="45"/>
     </row>
-    <row r="294" spans="2:16" ht="15.75" thickBot="1">
+    <row r="294" spans="2:16" ht="15" thickBot="1">
       <c r="B294" s="45"/>
       <c r="E294" s="16" t="s">
         <v>180</v>
@@ -8485,7 +8485,7 @@
       <c r="N314" s="74"/>
       <c r="P314" s="45"/>
     </row>
-    <row r="315" spans="2:16" ht="15.75" thickBot="1">
+    <row r="315" spans="2:16" ht="15" thickBot="1">
       <c r="B315" s="45"/>
       <c r="E315" s="60"/>
       <c r="F315" s="61"/>
@@ -8507,14 +8507,14 @@
       <c r="B317" s="45"/>
       <c r="P317" s="45"/>
     </row>
-    <row r="318" spans="2:16" ht="15.75" thickBot="1">
+    <row r="318" spans="2:16" ht="15" thickBot="1">
       <c r="B318" s="45"/>
       <c r="E318" s="16" t="s">
         <v>182</v>
       </c>
       <c r="P318" s="45"/>
     </row>
-    <row r="319" spans="2:16" ht="15.75" thickBot="1">
+    <row r="319" spans="2:16" ht="15" thickBot="1">
       <c r="B319" s="45"/>
       <c r="E319" s="26" t="s">
         <v>3</v>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="P319" s="45"/>
     </row>
-    <row r="320" spans="2:16" ht="16.5">
+    <row r="320" spans="2:16" ht="17">
       <c r="B320" s="45"/>
       <c r="E320" s="55" t="s">
         <v>183</v>
@@ -8548,23 +8548,23 @@
         <v>75</v>
       </c>
       <c r="G320" s="132">
-        <v>-14.910471894644257</v>
+        <v>-17.158714010567234</v>
       </c>
       <c r="H320" s="133">
-        <v>13.746521209684493</v>
+        <v>11.389244740358862</v>
       </c>
       <c r="I320" s="134">
-        <v>4.7104820475520688</v>
+        <v>11.108607426228726</v>
       </c>
       <c r="J320" s="134">
-        <v>-17.33132924280217</v>
+        <v>-17.41776383899505</v>
       </c>
       <c r="K320" s="56" t="s">
         <v>47</v>
       </c>
       <c r="P320" s="45"/>
     </row>
-    <row r="321" spans="2:16" ht="15.75">
+    <row r="321" spans="2:16" ht="15.5">
       <c r="B321" s="45"/>
       <c r="E321" s="95" t="s">
         <v>184</v>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="P321" s="45"/>
     </row>
-    <row r="322" spans="2:16" ht="15.75" thickBot="1">
+    <row r="322" spans="2:16" ht="15" thickBot="1">
       <c r="B322" s="45"/>
       <c r="E322" s="38" t="s">
         <v>13</v>
@@ -8598,16 +8598,16 @@
         <v>14</v>
       </c>
       <c r="G322" s="137">
-        <v>0.25191655895019749</v>
+        <v>8.7882614930860026E-2</v>
       </c>
       <c r="H322" s="138">
-        <v>0.35791931514395858</v>
+        <v>0.63897317971573431</v>
       </c>
       <c r="I322" s="139">
-        <v>2.962793293388585</v>
+        <v>0.6803786424743461</v>
       </c>
       <c r="J322" s="139">
-        <v>7.7047605821640719E-2</v>
+        <v>7.1702822429797974E-2</v>
       </c>
       <c r="K322" s="98">
         <v>1</v>
@@ -8634,7 +8634,7 @@
       <c r="B324" s="45"/>
       <c r="P324" s="45"/>
     </row>
-    <row r="325" spans="2:16" ht="15.75" thickBot="1">
+    <row r="325" spans="2:16" ht="15" thickBot="1">
       <c r="B325" s="45"/>
       <c r="E325" s="16" t="s">
         <v>187</v>
@@ -8927,7 +8927,7 @@
       <c r="N345" s="74"/>
       <c r="P345" s="45"/>
     </row>
-    <row r="346" spans="2:16" ht="15.75" thickBot="1">
+    <row r="346" spans="2:16" ht="15" thickBot="1">
       <c r="B346" s="45"/>
       <c r="E346" s="60"/>
       <c r="F346" s="61"/>
@@ -8949,7 +8949,7 @@
       <c r="B348" s="45"/>
       <c r="P348" s="45"/>
     </row>
-    <row r="349" spans="2:16" ht="15.75" thickBot="1">
+    <row r="349" spans="2:16" ht="15" thickBot="1">
       <c r="B349" s="45"/>
       <c r="E349" s="16" t="s">
         <v>188</v>
@@ -8968,7 +8968,7 @@
       </c>
       <c r="P349" s="45"/>
     </row>
-    <row r="350" spans="2:16" ht="15.75" thickBot="1">
+    <row r="350" spans="2:16" ht="15" thickBot="1">
       <c r="B350" s="45"/>
       <c r="E350" s="101" t="s">
         <v>3</v>
@@ -8993,7 +8993,7 @@
       </c>
       <c r="P350" s="45"/>
     </row>
-    <row r="351" spans="2:16" ht="18">
+    <row r="351" spans="2:16" ht="16.5">
       <c r="B351" s="45"/>
       <c r="E351" s="104" t="s">
         <v>39</v>
@@ -9002,14 +9002,14 @@
         <v>190</v>
       </c>
       <c r="G351" s="140">
-        <v>0.75388545715227739</v>
+        <v>1.7148843059774235E-2</v>
       </c>
       <c r="H351" s="20" t="s">
         <v>22</v>
       </c>
       <c r="P351" s="45"/>
     </row>
-    <row r="352" spans="2:16" ht="18">
+    <row r="352" spans="2:16" ht="16.5">
       <c r="B352" s="45"/>
       <c r="E352" s="17" t="s">
         <v>38</v>
@@ -9018,14 +9018,14 @@
         <v>191</v>
       </c>
       <c r="G352" s="99">
-        <v>7.2953288008445556</v>
+        <v>9.8978005216885236</v>
       </c>
       <c r="H352" s="31" t="s">
         <v>22</v>
       </c>
       <c r="P352" s="45"/>
     </row>
-    <row r="353" spans="2:16" ht="18">
+    <row r="353" spans="2:16" ht="16.5">
       <c r="B353" s="45"/>
       <c r="E353" s="19" t="s">
         <v>40</v>
@@ -9034,14 +9034,14 @@
         <v>189</v>
       </c>
       <c r="G353" s="99">
-        <v>-0.25190804292169333</v>
+        <v>-0.74878330123447379</v>
       </c>
       <c r="H353" s="31" t="s">
         <v>41</v>
       </c>
       <c r="P353" s="45"/>
     </row>
-    <row r="354" spans="2:16" ht="18">
+    <row r="354" spans="2:16" ht="16.5">
       <c r="B354" s="45"/>
       <c r="E354" s="17" t="s">
         <v>124</v>
@@ -9050,14 +9050,14 @@
         <v>125</v>
       </c>
       <c r="G354" s="99">
-        <v>4.6286612971106486E-3</v>
+        <v>9.5552221058293926E-5</v>
       </c>
       <c r="H354" s="31" t="s">
         <v>126</v>
       </c>
       <c r="P354" s="45"/>
     </row>
-    <row r="355" spans="2:16" ht="18.75" thickBot="1">
+    <row r="355" spans="2:16" ht="17" thickBot="1">
       <c r="B355" s="45"/>
       <c r="E355" s="9" t="s">
         <v>127</v>
@@ -9066,7 +9066,7 @@
         <v>128</v>
       </c>
       <c r="G355" s="100">
-        <v>4.4771040253722659E-2</v>
+        <v>5.434437026701195E-2</v>
       </c>
       <c r="H355" s="21" t="s">
         <v>126</v>
@@ -9084,7 +9084,7 @@
       <c r="B357" s="45"/>
       <c r="P357" s="45"/>
     </row>
-    <row r="358" spans="2:16" ht="15.75" thickBot="1">
+    <row r="358" spans="2:16" ht="15" thickBot="1">
       <c r="B358" s="45"/>
       <c r="E358" s="16" t="s">
         <v>192</v>
@@ -9377,7 +9377,7 @@
       <c r="N378" s="74"/>
       <c r="P378" s="45"/>
     </row>
-    <row r="379" spans="2:16" ht="15.75" thickBot="1">
+    <row r="379" spans="2:16" ht="15" thickBot="1">
       <c r="B379" s="45"/>
       <c r="E379" s="60"/>
       <c r="F379" s="61"/>
@@ -9395,7 +9395,7 @@
       <c r="B380" s="45"/>
       <c r="P380" s="45"/>
     </row>
-    <row r="381" spans="2:16" ht="15.75" thickBot="1">
+    <row r="381" spans="2:16" ht="15" thickBot="1">
       <c r="B381" s="45"/>
       <c r="E381" s="16" t="s">
         <v>194</v>
@@ -9688,7 +9688,7 @@
       <c r="N401" s="74"/>
       <c r="P401" s="45"/>
     </row>
-    <row r="402" spans="2:16" ht="15.75" thickBot="1">
+    <row r="402" spans="2:16" ht="15" thickBot="1">
       <c r="B402" s="45"/>
       <c r="E402" s="60"/>
       <c r="F402" s="61"/>
@@ -9706,7 +9706,7 @@
       <c r="B403" s="45"/>
       <c r="P403" s="45"/>
     </row>
-    <row r="404" spans="2:16" ht="15.75" thickBot="1">
+    <row r="404" spans="2:16" ht="15" thickBot="1">
       <c r="B404" s="45"/>
       <c r="E404" s="16" t="s">
         <v>196</v>
@@ -9999,7 +9999,7 @@
       <c r="N424" s="74"/>
       <c r="P424" s="45"/>
     </row>
-    <row r="425" spans="2:16" ht="15.75" thickBot="1">
+    <row r="425" spans="2:16" ht="15" thickBot="1">
       <c r="B425" s="45"/>
       <c r="E425" s="60"/>
       <c r="F425" s="61"/>
@@ -10017,7 +10017,7 @@
       <c r="B426" s="45"/>
       <c r="P426" s="45"/>
     </row>
-    <row r="427" spans="2:16" ht="15.75" thickBot="1">
+    <row r="427" spans="2:16" ht="15" thickBot="1">
       <c r="B427" s="45"/>
       <c r="E427" s="16" t="s">
         <v>198</v>
@@ -10312,7 +10312,7 @@
       <c r="N447" s="74"/>
       <c r="P447" s="45"/>
     </row>
-    <row r="448" spans="2:16" ht="15.75" thickBot="1">
+    <row r="448" spans="2:16" ht="15" thickBot="1">
       <c r="B448" s="45"/>
       <c r="E448" s="60"/>
       <c r="F448" s="61"/>
@@ -10330,7 +10330,7 @@
       <c r="B449" s="45"/>
       <c r="P449" s="45"/>
     </row>
-    <row r="450" spans="2:16" ht="15.75" thickBot="1">
+    <row r="450" spans="2:16" ht="15" thickBot="1">
       <c r="B450" s="45"/>
       <c r="E450" s="16" t="s">
         <v>199</v>
@@ -10623,7 +10623,7 @@
       <c r="N470" s="74"/>
       <c r="P470" s="45"/>
     </row>
-    <row r="471" spans="2:16" ht="15.75" thickBot="1">
+    <row r="471" spans="2:16" ht="15" thickBot="1">
       <c r="B471" s="45"/>
       <c r="E471" s="60"/>
       <c r="F471" s="61"/>
